--- a/上海抗疫日记预测/American_data.xlsx
+++ b/上海抗疫日记预测/American_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73948\PycharmProjects\Algorithm_Space\上海抗疫日记预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795EE2AD-2A15-402B-AEE3-F6630D0090BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E52CB-4C2F-4918-A65C-6241375FFBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:ACU15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
-      <selection activeCell="EC2" sqref="EC2"/>
+      <selection activeCell="ED1" sqref="ED1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1980,7 +1980,7 @@
         <v>306936</v>
       </c>
       <c r="ED1">
-        <v>0</v>
+        <v>330449</v>
       </c>
       <c r="EE1">
         <v>0</v>
@@ -2772,6 +2772,9 @@
       </c>
       <c r="EC2">
         <v>306936</v>
+      </c>
+      <c r="ED2">
+        <v>330449</v>
       </c>
     </row>
     <row r="3" spans="1:775">

--- a/上海抗疫日记预测/American_data.xlsx
+++ b/上海抗疫日记预测/American_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73948\PycharmProjects\Algorithm_Space\上海抗疫日记预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E52CB-4C2F-4918-A65C-6241375FFBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51579D-3440-4279-9546-EC79E5D8C3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:ACU15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
-      <selection activeCell="ED1" sqref="ED1"/>
+      <selection activeCell="EI2" sqref="EI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1983,16 +1983,16 @@
         <v>330449</v>
       </c>
       <c r="EE1">
-        <v>0</v>
+        <v>355269</v>
       </c>
       <c r="EF1">
-        <v>0</v>
+        <v>377517</v>
       </c>
       <c r="EG1">
-        <v>0</v>
+        <v>396959</v>
       </c>
       <c r="EH1">
-        <v>0</v>
+        <v>415860</v>
       </c>
       <c r="EI1">
         <v>0</v>
@@ -2775,6 +2775,18 @@
       </c>
       <c r="ED2">
         <v>330449</v>
+      </c>
+      <c r="EE2">
+        <v>355269</v>
+      </c>
+      <c r="EF2">
+        <v>377517</v>
+      </c>
+      <c r="EG2">
+        <v>396959</v>
+      </c>
+      <c r="EH2">
+        <v>415860</v>
       </c>
     </row>
     <row r="3" spans="1:775">
